--- a/opg.xlsx
+++ b/opg.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arobatjazi\Desktop\projects\azmayesh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0919CE-0241-4172-BD48-7EF79010E3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FB820A-62FE-4D2D-9696-76077D4872E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>opg</t>
   </si>
@@ -43,6 +52,9 @@
   </si>
   <si>
     <t>مبلغ پرداختی بیمار</t>
+  </si>
+  <si>
+    <t>قابل پرداخت</t>
   </si>
 </sst>
 </file>
@@ -109,14 +121,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,17 +409,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:I8"/>
+  <dimension ref="C4:I11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="1"/>
+    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
@@ -415,64 +429,77 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="D5" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="D8" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/opg.xlsx
+++ b/opg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arobatjazi\Desktop\projects\azmayesh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arobatjazi\Desktop\projects\madical_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FB820A-62FE-4D2D-9696-76077D4872E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E404BBDB-A7AB-4E32-AEB4-57A29006AFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="3105" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>opg</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>قابل پرداخت</t>
+  </si>
+  <si>
+    <t>با کسر</t>
+  </si>
+  <si>
+    <t>بدون کسر</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -129,6 +135,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,17 +417,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:I11"/>
+  <dimension ref="C4:I14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="7" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="27.625" style="1" bestFit="1" customWidth="1"/>
@@ -444,8 +452,8 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>100000</v>
+      <c r="D5" s="6">
+        <v>2000000</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="2" t="s">
@@ -458,8 +466,9 @@
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
+      <c r="D6" s="6">
+        <f>1861720*0.3</f>
+        <v>558516</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="2" t="s">
@@ -472,8 +481,8 @@
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
+      <c r="D7" s="6">
+        <v>321562</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="2" t="s">
@@ -486,8 +495,8 @@
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
-        <v>90000</v>
+      <c r="D8" s="6">
+        <v>1890000</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="2" t="s">
@@ -499,6 +508,30 @@
     <row r="11" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <f>1861720-D7</f>
+        <v>1540158</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <f>(D8-D12) *0.9</f>
+        <v>314857.8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="7">
+        <f>D13+D12</f>
+        <v>1855015.8</v>
       </c>
     </row>
   </sheetData>
